--- a/VideoRecord/assets/online_data.xlsx
+++ b/VideoRecord/assets/online_data.xlsx
@@ -7,25 +7,19 @@
     <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
   <sheets>
-    <sheet name="online_data" sheetId="1" r:id="rId1"/>
+    <sheet name="online_data1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>风景</t>
   </si>
   <si>
     <t>风和日丽</t>
-  </si>
-  <si>
-    <t>https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1489308109&amp;di=0048e4ec744c23222c572e2569a83ccd&amp;imgtype=jpg&amp;er=1&amp;src=http%3A%2F%2Fh.hiphotos.baidu.com%2Fimage%2Fpic%2Fitem%2Ff9dcd100baa1cd11dd1855cebd12c8fcc2ce2db5.jpg</t>
-  </si>
-  <si>
-    <t>http://www.baidu.com</t>
   </si>
   <si>
     <t>美女</t>
@@ -64,6 +58,21 @@
   </si>
   <si>
     <t>视频地址</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.oschina.net/softboys/database/raw/master/livephoto/video/IMG_0492.JPG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.oschina.net/softboys/database/raw/master/livephoto/video/IMG_0663.JPG</t>
+  </si>
+  <si>
+    <t>https://git.oschina.net/softboys/database/raw/master/livephoto/video/IMG_0492.MOV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.oschina.net/softboys/database/raw/master/livephoto/video/IMG_0663.MOV</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +236,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -530,7 +548,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,13 +675,19 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -689,6 +713,7 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1007,32 +1032,33 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -1048,19 +1074,19 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1069,18 +1095,18 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1089,14 +1115,20 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>